--- a/5 semester/Driver_Schedule.xlsx
+++ b/5 semester/Driver_Schedule.xlsx
@@ -56,12 +56,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -432,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,893 +498,777 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Driver_1</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>06:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>06:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>06:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>06:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>06:00 - 14:00</t>
-        </is>
-      </c>
+          <t>Bus_1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="inlineStr"/>
       <c r="H2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Driver_2</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>06:15 - 14:15</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>06:15 - 14:15</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>06:15 - 14:15</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>06:15 - 14:15</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>06:15 - 14:15</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Driver_1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>06:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>06:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>06:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>06:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>06:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr"/>
+      <c r="H3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Driver_3</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>06:30 - 14:30</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>06:30 - 14:30</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>06:30 - 14:30</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>06:30 - 14:30</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>06:30 - 14:30</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr"/>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Driver_10</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>14:00 - 02:00</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>14:00 - 02:00</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Driver_4</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>06:45 - 14:45</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>06:45 - 14:45</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>06:45 - 14:45</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>06:45 - 14:45</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>06:45 - 14:45</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Driver_11</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>14:00 - 02:00</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>06:00 - 18:00</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Driver_5</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>09:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>09:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>09:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>09:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>09:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="inlineStr"/>
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Driver_33</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>18:03 - 06:03</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Driver_6</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>09:15 - 17:15</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>09:15 - 17:15</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>09:15 - 17:15</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>09:15 - 17:15</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>09:15 - 17:15</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Driver_34</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>18:03 - 06:03</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Driver_7</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>09:30 - 17:30</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>09:30 - 17:30</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>09:30 - 17:30</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>09:30 - 17:30</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>09:30 - 17:30</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr"/>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Driver_9</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>14:00 - 02:00</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>14:00 - 02:00</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>06:00 - 18:00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Driver_8</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>09:45 - 17:45</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>09:45 - 17:45</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>09:45 - 17:45</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>09:45 - 17:45</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>09:45 - 17:45</t>
-        </is>
-      </c>
+          <t>Bus_2</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr"/>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr"/>
       <c r="H9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Driver_9</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 02:00</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 02:00</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>06:00 - 18:00</t>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Driver_12</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>14:15 - 02:15</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>14:15 - 02:15</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>06:18 - 18:18</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Driver_10</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr"/>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 02:00</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 02:00</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr"/>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Driver_13</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>14:15 - 02:15</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>14:15 - 02:15</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Driver_11</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr"/>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 02:00</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>06:00 - 18:00</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr"/>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Driver_14</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr"/>
+      <c r="C12" s="4" t="inlineStr"/>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>14:15 - 02:15</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>06:18 - 18:18</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Driver_12</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>14:15 - 02:15</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>14:15 - 02:15</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>06:18 - 18:18</t>
-        </is>
-      </c>
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Driver_2</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>06:15 - 14:15</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>06:15 - 14:15</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>06:15 - 14:15</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>06:15 - 14:15</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>06:15 - 14:15</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr"/>
+      <c r="H13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Driver_13</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr"/>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>14:15 - 02:15</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>14:15 - 02:15</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Driver_35</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr"/>
+      <c r="C14" s="4" t="inlineStr"/>
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>18:21 - 06:21</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Driver_14</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>14:15 - 02:15</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>06:18 - 18:18</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr"/>
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Driver_36</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>18:21 - 06:21</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Driver_15</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>14:30 - 02:30</t>
-        </is>
-      </c>
+          <t>Bus_3</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr"/>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>14:30 - 02:30</t>
-        </is>
-      </c>
+      <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr"/>
       <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Driver_15</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>14:30 - 02:30</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>14:30 - 02:30</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>06:36 - 18:36</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>Driver_16</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr"/>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>14:30 - 02:30</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>14:30 - 02:30</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr"/>
-      <c r="H17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Driver_17</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr"/>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>14:30 - 02:30</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>06:36 - 18:36</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Driver_18</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>14:45 - 02:45</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>14:45 - 02:45</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>06:54 - 18:54</t>
-        </is>
-      </c>
+      <c r="H19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Driver_19</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr"/>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>14:45 - 02:45</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>14:45 - 02:45</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr"/>
-      <c r="H20" s="3" t="inlineStr"/>
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Driver_3</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>06:30 - 14:30</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>06:30 - 14:30</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>06:30 - 14:30</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>06:30 - 14:30</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>06:30 - 14:30</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Driver_20</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr"/>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>14:45 - 02:45</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>06:54 - 18:54</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr"/>
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Driver_37</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>18:39 - 06:39</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Driver_21</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>17:00 - 05:00</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>17:00 - 05:00</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>07:12 - 19:12</t>
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Driver_38</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr"/>
+      <c r="C22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>18:39 - 06:39</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Driver_22</t>
+          <t>Bus_4</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr"/>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>17:00 - 05:00</t>
-        </is>
-      </c>
+      <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>17:00 - 05:00</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="inlineStr"/>
       <c r="G23" s="3" t="inlineStr"/>
       <c r="H23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Driver_23</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr"/>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>17:00 - 05:00</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>07:12 - 19:12</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr"/>
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Driver_18</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>14:45 - 02:45</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>14:45 - 02:45</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr"/>
+      <c r="G24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>06:54 - 18:54</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>Driver_24</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>17:15 - 05:15</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>17:15 - 05:15</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr"/>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>07:30 - 19:30</t>
-        </is>
-      </c>
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Driver_19</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>14:45 - 02:45</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>14:45 - 02:45</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Driver_25</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr"/>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>17:15 - 05:15</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr"/>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>17:15 - 05:15</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr"/>
-      <c r="H26" s="3" t="inlineStr"/>
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Driver_20</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>14:45 - 02:45</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>06:54 - 18:54</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Driver_26</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr"/>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>17:15 - 05:15</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr"/>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>07:30 - 19:30</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="inlineStr"/>
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Driver_39</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" s="4" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>18:57 - 06:57</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>Driver_27</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>17:30 - 05:30</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>17:30 - 05:30</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr"/>
-      <c r="G28" s="3" t="inlineStr"/>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>07:48 - 19:48</t>
-        </is>
-      </c>
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Driver_4</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>06:45 - 14:45</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>06:45 - 14:45</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>06:45 - 14:45</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>06:45 - 14:45</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>06:45 - 14:45</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Driver_28</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr"/>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>17:30 - 05:30</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>17:30 - 05:30</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr"/>
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Driver_40</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr"/>
+      <c r="C29" s="4" t="inlineStr"/>
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr"/>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>18:57 - 06:57</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Driver_29</t>
+          <t>Bus_5</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr"/>
       <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>17:30 - 05:30</t>
-        </is>
-      </c>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3" t="inlineStr"/>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>07:48 - 19:48</t>
-        </is>
-      </c>
+      <c r="G30" s="3" t="inlineStr"/>
       <c r="H30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>Driver_30</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>17:45 - 05:45</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>17:45 - 05:45</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr">
-        <is>
-          <t>08:06 - 20:06</t>
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>Driver_21</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>17:00 - 05:00</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>17:00 - 05:00</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>07:12 - 19:12</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>Driver_31</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr"/>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>17:45 - 05:45</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>17:45 - 05:45</t>
-        </is>
-      </c>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="inlineStr"/>
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Driver_22</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>17:00 - 05:00</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr"/>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>17:00 - 05:00</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr"/>
+      <c r="H32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Driver_32</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr"/>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>17:45 - 05:45</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>08:06 - 20:06</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="inlineStr"/>
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>Driver_23</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr"/>
+      <c r="C33" s="4" t="inlineStr"/>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>17:00 - 05:00</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>07:12 - 19:12</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Driver_33</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr"/>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>18:03 - 06:03</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr"/>
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>Driver_41</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr"/>
+      <c r="C34" s="4" t="inlineStr"/>
+      <c r="D34" s="4" t="inlineStr"/>
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>19:15 - 07:15</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>Driver_34</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr"/>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="inlineStr"/>
-      <c r="H35" s="3" t="inlineStr">
-        <is>
-          <t>18:03 - 06:03</t>
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Driver_42</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr"/>
+      <c r="C35" s="4" t="inlineStr"/>
+      <c r="D35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>19:15 - 07:15</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>Driver_35</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr"/>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr">
-        <is>
-          <t>18:21 - 06:21</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="inlineStr"/>
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>Driver_5</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>09:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>09:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>09:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>09:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>09:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr"/>
+      <c r="H36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Driver_36</t>
+          <t>Bus_6</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr"/>
@@ -1390,124 +1277,152 @@
       <c r="E37" s="3" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr"/>
       <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr">
-        <is>
-          <t>18:21 - 06:21</t>
-        </is>
-      </c>
+      <c r="H37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
-        <is>
-          <t>Driver_37</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr"/>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>18:39 - 06:39</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="inlineStr"/>
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>Driver_24</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>17:15 - 05:15</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr"/>
+      <c r="D38" s="4" t="inlineStr"/>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>17:15 - 05:15</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>07:30 - 19:30</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>Driver_38</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr"/>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr"/>
-      <c r="H39" s="3" t="inlineStr">
-        <is>
-          <t>18:39 - 06:39</t>
-        </is>
-      </c>
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>Driver_25</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>17:15 - 05:15</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>17:15 - 05:15</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>Driver_39</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr"/>
-      <c r="C40" s="3" t="inlineStr"/>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr">
-        <is>
-          <t>18:57 - 06:57</t>
-        </is>
-      </c>
-      <c r="H40" s="3" t="inlineStr"/>
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>Driver_26</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr"/>
+      <c r="C40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>17:15 - 05:15</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>07:30 - 19:30</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>Driver_40</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr"/>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>18:57 - 06:57</t>
-        </is>
-      </c>
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>Driver_43</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr"/>
+      <c r="D41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>19:33 - 07:33</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>Driver_41</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr"/>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>19:15 - 07:15</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="inlineStr"/>
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>Driver_44</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr"/>
+      <c r="C42" s="4" t="inlineStr"/>
+      <c r="D42" s="4" t="inlineStr"/>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr"/>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>19:33 - 07:33</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>Driver_42</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr"/>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr">
-        <is>
-          <t>19:15 - 07:15</t>
-        </is>
-      </c>
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>Driver_6</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>09:15 - 17:15</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>09:15 - 17:15</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>09:15 - 17:15</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>09:15 - 17:15</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>09:15 - 17:15</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr"/>
+      <c r="H43" s="4" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Driver_43</t>
+          <t>Bus_7</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr"/>
@@ -1515,102 +1430,302 @@
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr"/>
       <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>19:33 - 07:33</t>
-        </is>
-      </c>
+      <c r="G44" s="3" t="inlineStr"/>
       <c r="H44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>Driver_44</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr"/>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="inlineStr">
-        <is>
-          <t>19:33 - 07:33</t>
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>Driver_27</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>17:30 - 05:30</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr"/>
+      <c r="D45" s="4" t="inlineStr"/>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>17:30 - 05:30</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr"/>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>07:48 - 19:48</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>Driver_28</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr"/>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>17:30 - 05:30</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr"/>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>17:30 - 05:30</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>Driver_29</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr"/>
+      <c r="C47" s="4" t="inlineStr"/>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>17:30 - 05:30</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>07:48 - 19:48</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>Driver_45</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr"/>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr"/>
+      <c r="C48" s="4" t="inlineStr"/>
+      <c r="D48" s="4" t="inlineStr"/>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>19:51 - 07:51</t>
         </is>
       </c>
-      <c r="H46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="H48" s="4" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>Driver_46</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr"/>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr"/>
+      <c r="C49" s="4" t="inlineStr"/>
+      <c r="D49" s="4" t="inlineStr"/>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
+      <c r="H49" s="4" t="inlineStr">
         <is>
           <t>19:51 - 07:51</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>Driver_7</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>09:30 - 17:30</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>09:30 - 17:30</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>09:30 - 17:30</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>09:30 - 17:30</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>09:30 - 17:30</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Bus_8</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr"/>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="inlineStr"/>
+      <c r="F51" s="3" t="inlineStr"/>
+      <c r="G51" s="3" t="inlineStr"/>
+      <c r="H51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Driver_30</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>17:45 - 05:45</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr"/>
+      <c r="D52" s="4" t="inlineStr"/>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>17:45 - 05:45</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr"/>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>08:06 - 20:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Driver_31</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr"/>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>17:45 - 05:45</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr"/>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>17:45 - 05:45</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr"/>
+      <c r="H53" s="4" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>Driver_32</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr"/>
+      <c r="C54" s="4" t="inlineStr"/>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>17:45 - 05:45</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>08:06 - 20:06</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>Driver_47</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr"/>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr"/>
+      <c r="C55" s="4" t="inlineStr"/>
+      <c r="D55" s="4" t="inlineStr"/>
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr">
         <is>
           <t>20:09 - 08:09</t>
         </is>
       </c>
-      <c r="H48" s="3" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="H55" s="4" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>Driver_48</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr"/>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr"/>
+      <c r="C56" s="4" t="inlineStr"/>
+      <c r="D56" s="4" t="inlineStr"/>
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
+      <c r="G56" s="4" t="inlineStr"/>
+      <c r="H56" s="4" t="inlineStr">
         <is>
           <t>20:09 - 08:09</t>
         </is>
       </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>Driver_8</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>09:45 - 17:45</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>09:45 - 17:45</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>09:45 - 17:45</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>09:45 - 17:45</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>09:45 - 17:45</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="inlineStr"/>
+      <c r="H57" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1698,70 +1813,70 @@
       <c r="H2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Driver_5</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>14:15-15:00</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>14:15-15:00</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>14:15-15:00</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>14:15-15:00</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>14:15-15:00</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr"/>
+      <c r="H3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Driver_9</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>13:00-14:00</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Driver_11</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>13:00-14:00</t>
         </is>
@@ -1782,1082 +1897,1082 @@
       <c r="H6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Driver_1</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>07:45-08:00, 09:45-10:00, 11:45-12:00</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>07:45-08:00, 09:45-10:00, 11:45-12:00</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>07:45-08:00, 09:45-10:00, 11:45-12:00</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>07:45-08:00, 09:45-10:00, 11:45-12:00</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>07:45-08:00, 09:45-10:00, 11:45-12:00</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Driver_2</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>08:00-08:15, 10:00-10:15, 12:00-12:15</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>08:00-08:15, 10:00-10:15, 12:00-12:15</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>08:00-08:15, 10:00-10:15, 12:00-12:15</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>08:00-08:15, 10:00-10:15, 12:00-12:15</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>08:00-08:15, 10:00-10:15, 12:00-12:15</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Driver_3</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>08:15-08:30, 10:15-10:30, 12:15-12:30</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>08:15-08:30, 10:15-10:30, 12:15-12:30</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>08:15-08:30, 10:15-10:30, 12:15-12:30</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>08:15-08:30, 10:15-10:30, 12:15-12:30</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>08:15-08:30, 10:15-10:30, 12:15-12:30</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr"/>
-      <c r="H9" s="3" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr"/>
+      <c r="H9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Driver_4</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>08:30-08:45, 10:30-10:45, 12:30-12:45</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>08:30-08:45, 10:30-10:45, 12:30-12:45</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>08:30-08:45, 10:30-10:45, 12:30-12:45</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>08:30-08:45, 10:30-10:45, 12:30-12:45</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>08:30-08:45, 10:30-10:45, 12:30-12:45</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="inlineStr"/>
+      <c r="G10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Driver_6</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>11:00-11:15, 13:00-13:15, 15:00-15:15</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>11:00-11:15, 13:00-13:15, 15:00-15:15</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>11:00-11:15, 13:00-13:15, 15:00-15:15</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>11:00-11:15, 13:00-13:15, 15:00-15:15</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>11:00-11:15, 13:00-13:15, 15:00-15:15</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Driver_7</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>11:15-11:30, 13:15-13:30, 15:15-15:30</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>11:15-11:30, 13:15-13:30, 15:15-15:30</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>11:15-11:30, 13:15-13:30, 15:15-15:30</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>11:15-11:30, 13:15-13:30, 15:15-15:30</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>11:15-11:30, 13:15-13:30, 15:15-15:30</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="inlineStr"/>
+      <c r="G12" s="4" t="inlineStr"/>
+      <c r="H12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Driver_8</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>11:30-11:45, 13:30-13:45, 15:30-15:45</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>11:30-11:45, 13:30-13:45, 15:30-15:45</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>11:30-11:45, 13:30-13:45, 15:30-15:45</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>11:30-11:45, 13:30-13:45, 15:30-15:45</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>11:30-11:45, 13:30-13:45, 15:30-15:45</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr"/>
+      <c r="H13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>Driver_9</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>15:45-16:03, 17:45-18:03, 19:45-20:03, 21:45-22:03, 23:45-00:03</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr"/>
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>15:45-16:03, 17:45-18:03, 19:45-20:03, 21:45-22:03, 23:45-00:03</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr"/>
+      <c r="H14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Driver_10</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>15:45-16:03, 17:45-18:03, 19:45-20:03, 21:45-22:03, 23:45-00:03</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr"/>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>15:45-16:03, 17:45-18:03, 19:45-20:03, 21:45-22:03, 23:45-00:03</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Driver_11</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr"/>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>15:45-16:03, 17:45-18:03, 19:45-20:03, 21:45-22:03, 23:45-00:03</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>Driver_12</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>16:00-16:18, 18:00-18:18, 20:00-20:18, 22:00-22:18, 00:00-00:18</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>16:00-16:18, 18:00-18:18, 20:00-20:18, 22:00-22:18, 00:00-00:18</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>08:03-08:21, 10:03-10:21, 12:03-12:21, 14:03-14:21, 16:03-16:21</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>Driver_13</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr"/>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>16:00-16:18, 18:00-18:18, 20:00-20:18, 22:00-22:18, 00:00-00:18</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>16:00-16:18, 18:00-18:18, 20:00-20:18, 22:00-22:18, 00:00-00:18</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr"/>
-      <c r="H18" s="3" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Driver_14</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr"/>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>16:00-16:18, 18:00-18:18, 20:00-20:18, 22:00-22:18, 00:00-00:18</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>08:03-08:21, 10:03-10:21, 12:03-12:21, 14:03-14:21, 16:03-16:21</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>Driver_15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>16:15-16:33, 18:15-18:33, 20:15-20:33, 22:15-22:33, 00:15-00:33</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>16:15-16:33, 18:15-18:33, 20:15-20:33, 22:15-22:33, 00:15-00:33</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr"/>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>08:21-08:39, 10:21-10:39, 12:21-12:39, 14:21-14:39, 16:21-16:39</t>
         </is>
       </c>
-      <c r="H20" s="3" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Driver_16</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr"/>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>16:15-16:33, 18:15-18:33, 20:15-20:33, 22:15-22:33, 00:15-00:33</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>16:15-16:33, 18:15-18:33, 20:15-20:33, 22:15-22:33, 00:15-00:33</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="3" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>Driver_17</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr"/>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr"/>
+      <c r="C22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>16:15-16:33, 18:15-18:33, 20:15-20:33, 22:15-22:33, 00:15-00:33</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>08:21-08:39, 10:21-10:39, 12:21-12:39, 14:21-14:39, 16:21-16:39</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>Driver_18</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>16:30-16:48, 18:30-18:48, 20:30-20:48, 22:30-22:48, 00:30-00:48</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>16:30-16:48, 18:30-18:48, 20:30-20:48, 22:30-22:48, 00:30-00:48</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>08:39-08:57, 10:39-10:57, 12:39-12:57, 14:39-14:57, 16:39-16:57</t>
         </is>
       </c>
-      <c r="H23" s="3" t="inlineStr"/>
+      <c r="H23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>Driver_19</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr"/>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>16:30-16:48, 18:30-18:48, 20:30-20:48, 22:30-22:48, 00:30-00:48</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>16:30-16:48, 18:30-18:48, 20:30-20:48, 22:30-22:48, 00:30-00:48</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
+      <c r="G24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Driver_20</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr"/>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>16:30-16:48, 18:30-18:48, 20:30-20:48, 22:30-22:48, 00:30-00:48</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr"/>
-      <c r="F25" s="3" t="inlineStr"/>
-      <c r="G25" s="3" t="inlineStr"/>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>08:39-08:57, 10:39-10:57, 12:39-12:57, 14:39-14:57, 16:39-16:57</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>Driver_21</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>18:45-19:03, 20:45-21:03, 22:45-23:03, 00:45-01:03, 02:45-03:03</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>18:45-19:03, 20:45-21:03, 22:45-23:03, 00:45-01:03, 02:45-03:03</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr"/>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>08:57-09:15, 10:57-11:15, 12:57-13:15, 14:57-15:15, 16:57-17:15</t>
         </is>
       </c>
-      <c r="H26" s="3" t="inlineStr"/>
+      <c r="H26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>Driver_22</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr"/>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>18:45-19:03, 20:45-21:03, 22:45-23:03, 00:45-01:03, 02:45-03:03</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>18:45-19:03, 20:45-21:03, 22:45-23:03, 00:45-01:03, 02:45-03:03</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr"/>
-      <c r="H27" s="3" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr"/>
+      <c r="H27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>Driver_23</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr"/>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>18:45-19:03, 20:45-21:03, 22:45-23:03, 00:45-01:03, 02:45-03:03</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="3" t="inlineStr"/>
-      <c r="G28" s="3" t="inlineStr"/>
-      <c r="H28" s="3" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr">
         <is>
           <t>08:57-09:15, 10:57-11:15, 12:57-13:15, 14:57-15:15, 16:57-17:15</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>Driver_24</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>19:00-19:18, 21:00-21:18, 23:00-23:18, 01:00-01:18, 03:00-03:18</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr"/>
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>19:00-19:18, 21:00-21:18, 23:00-23:18, 01:00-01:18, 03:00-03:18</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr"/>
-      <c r="G29" s="3" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>09:15-09:33, 11:15-11:33, 13:15-13:33, 15:15-15:33, 17:15-17:33</t>
         </is>
       </c>
-      <c r="H29" s="3" t="inlineStr"/>
+      <c r="H29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>Driver_25</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr"/>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>19:00-19:18, 21:00-21:18, 23:00-23:18, 01:00-01:18, 03:00-03:18</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>19:00-19:18, 21:00-21:18, 23:00-23:18, 01:00-01:18, 03:00-03:18</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr"/>
-      <c r="H30" s="3" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
+      <c r="H30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>Driver_26</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr"/>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr"/>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>19:00-19:18, 21:00-21:18, 23:00-23:18, 01:00-01:18, 03:00-03:18</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>09:15-09:33, 11:15-11:33, 13:15-13:33, 15:15-15:33, 17:15-17:33</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>Driver_27</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>19:15-19:33, 21:15-21:33, 23:15-23:33, 01:15-01:33, 03:15-03:33</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr"/>
+      <c r="D32" s="4" t="inlineStr"/>
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>19:15-19:33, 21:15-21:33, 23:15-23:33, 01:15-01:33, 03:15-03:33</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>09:33-09:51, 11:33-11:51, 13:33-13:51, 15:33-15:51, 17:33-17:51</t>
         </is>
       </c>
-      <c r="H32" s="3" t="inlineStr"/>
+      <c r="H32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>Driver_28</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr"/>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr"/>
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>19:15-19:33, 21:15-21:33, 23:15-23:33, 01:15-01:33, 03:15-03:33</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr"/>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>19:15-19:33, 21:15-21:33, 23:15-23:33, 01:15-01:33, 03:15-03:33</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr"/>
+      <c r="H33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>Driver_29</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr"/>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr"/>
+      <c r="C34" s="4" t="inlineStr"/>
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>19:15-19:33, 21:15-21:33, 23:15-23:33, 01:15-01:33, 03:15-03:33</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
+      <c r="G34" s="4" t="inlineStr"/>
+      <c r="H34" s="4" t="inlineStr">
         <is>
           <t>09:33-09:51, 11:33-11:51, 13:33-13:51, 15:33-15:51, 17:33-17:51</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>Driver_30</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>19:30-19:48, 21:30-21:48, 23:30-23:48, 01:30-01:48, 03:30-03:48</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr"/>
+      <c r="D35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>19:30-19:48, 21:30-21:48, 23:30-23:48, 01:30-01:48, 03:30-03:48</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>09:51-10:09, 11:51-12:09, 13:51-14:09, 15:51-16:09, 17:51-18:09</t>
         </is>
       </c>
-      <c r="H35" s="3" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>Driver_31</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr"/>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr"/>
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>19:30-19:48, 21:30-21:48, 23:30-23:48, 01:30-01:48, 03:30-03:48</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>19:30-19:48, 21:30-21:48, 23:30-23:48, 01:30-01:48, 03:30-03:48</t>
         </is>
       </c>
-      <c r="G36" s="3" t="inlineStr"/>
-      <c r="H36" s="3" t="inlineStr"/>
+      <c r="G36" s="4" t="inlineStr"/>
+      <c r="H36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>Driver_32</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr"/>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr"/>
+      <c r="C37" s="4" t="inlineStr"/>
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>19:30-19:48, 21:30-21:48, 23:30-23:48, 01:30-01:48, 03:30-03:48</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="inlineStr"/>
+      <c r="H37" s="4" t="inlineStr">
         <is>
           <t>09:51-10:09, 11:51-12:09, 13:51-14:09, 15:51-16:09, 17:51-18:09</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>Driver_33</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr"/>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr"/>
+      <c r="C38" s="4" t="inlineStr"/>
+      <c r="D38" s="4" t="inlineStr"/>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr">
         <is>
           <t>19:48-20:03, 21:48-22:03, 23:48-00:03, 01:48-02:03, 03:48-04:03</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>Driver_34</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr"/>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>19:48-20:03, 21:48-22:03, 23:48-00:03, 01:48-02:03, 03:48-04:03</t>
         </is>
       </c>
-      <c r="H39" s="3" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>Driver_35</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr"/>
-      <c r="C40" s="3" t="inlineStr"/>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr"/>
-      <c r="H40" s="3" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr"/>
+      <c r="C40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr">
         <is>
           <t>20:06-20:21, 22:06-22:21, 00:06-00:21, 02:06-02:21, 04:06-04:21</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>Driver_36</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr"/>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr"/>
+      <c r="D41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>20:06-20:21, 22:06-22:21, 00:06-00:21, 02:06-02:21, 04:06-04:21</t>
         </is>
       </c>
-      <c r="H41" s="3" t="inlineStr"/>
+      <c r="H41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>Driver_37</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr"/>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr"/>
+      <c r="C42" s="4" t="inlineStr"/>
+      <c r="D42" s="4" t="inlineStr"/>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr"/>
+      <c r="H42" s="4" t="inlineStr">
         <is>
           <t>20:24-20:39, 22:24-22:39, 00:24-00:39, 02:24-02:39, 04:24-04:39</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>Driver_38</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr"/>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr"/>
+      <c r="C43" s="4" t="inlineStr"/>
+      <c r="D43" s="4" t="inlineStr"/>
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr">
         <is>
           <t>20:24-20:39, 22:24-22:39, 00:24-00:39, 02:24-02:39, 04:24-04:39</t>
         </is>
       </c>
-      <c r="H43" s="3" t="inlineStr"/>
+      <c r="H43" s="4" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>Driver_39</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr"/>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr"/>
+      <c r="C44" s="4" t="inlineStr"/>
+      <c r="D44" s="4" t="inlineStr"/>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr"/>
+      <c r="H44" s="4" t="inlineStr">
         <is>
           <t>20:42-20:57, 22:42-22:57, 00:42-00:57, 02:42-02:57, 04:42-04:57</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>Driver_40</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr"/>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr"/>
+      <c r="C45" s="4" t="inlineStr"/>
+      <c r="D45" s="4" t="inlineStr"/>
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>20:42-20:57, 22:42-22:57, 00:42-00:57, 02:42-02:57, 04:42-04:57</t>
         </is>
       </c>
-      <c r="H45" s="3" t="inlineStr"/>
+      <c r="H45" s="4" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>Driver_41</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr"/>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr"/>
+      <c r="C46" s="4" t="inlineStr"/>
+      <c r="D46" s="4" t="inlineStr"/>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="inlineStr">
         <is>
           <t>21:00-21:15, 23:00-23:15, 01:00-01:15, 03:00-03:15, 05:00-05:15</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>Driver_42</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr"/>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr"/>
+      <c r="C47" s="4" t="inlineStr"/>
+      <c r="D47" s="4" t="inlineStr"/>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>21:00-21:15, 23:00-23:15, 01:00-01:15, 03:00-03:15, 05:00-05:15</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr"/>
+      <c r="H47" s="4" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>Driver_43</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr"/>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr"/>
-      <c r="H48" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr"/>
+      <c r="C48" s="4" t="inlineStr"/>
+      <c r="D48" s="4" t="inlineStr"/>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr">
         <is>
           <t>21:18-21:33, 23:18-23:33, 01:18-01:33, 03:18-03:33, 05:18-05:33</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>Driver_44</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr"/>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr"/>
+      <c r="C49" s="4" t="inlineStr"/>
+      <c r="D49" s="4" t="inlineStr"/>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>21:18-21:33, 23:18-23:33, 01:18-01:33, 03:18-03:33, 05:18-05:33</t>
         </is>
       </c>
-      <c r="H49" s="3" t="inlineStr"/>
+      <c r="H49" s="4" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>Driver_45</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr"/>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr"/>
-      <c r="H50" s="3" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr"/>
+      <c r="C50" s="4" t="inlineStr"/>
+      <c r="D50" s="4" t="inlineStr"/>
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="inlineStr">
         <is>
           <t>21:36-21:51, 23:36-23:51, 01:36-01:51, 03:36-03:51, 05:36-05:51</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>Driver_46</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr"/>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr"/>
+      <c r="C51" s="4" t="inlineStr"/>
+      <c r="D51" s="4" t="inlineStr"/>
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>21:36-21:51, 23:36-23:51, 01:36-01:51, 03:36-03:51, 05:36-05:51</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr"/>
+      <c r="H51" s="4" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>Driver_47</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr"/>
-      <c r="C52" s="3" t="inlineStr"/>
-      <c r="D52" s="3" t="inlineStr"/>
-      <c r="E52" s="3" t="inlineStr"/>
-      <c r="F52" s="3" t="inlineStr"/>
-      <c r="G52" s="3" t="inlineStr"/>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr"/>
+      <c r="C52" s="4" t="inlineStr"/>
+      <c r="D52" s="4" t="inlineStr"/>
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr"/>
+      <c r="H52" s="4" t="inlineStr">
         <is>
           <t>21:54-22:09, 23:54-00:09, 01:54-02:09, 03:54-04:09, 05:54-06:09</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>Driver_48</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr"/>
-      <c r="C53" s="3" t="inlineStr"/>
-      <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr"/>
+      <c r="C53" s="4" t="inlineStr"/>
+      <c r="D53" s="4" t="inlineStr"/>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr">
         <is>
           <t>21:54-22:09, 23:54-00:09, 01:54-02:09, 03:54-04:09, 05:54-06:09</t>
         </is>
       </c>
-      <c r="H53" s="3" t="inlineStr"/>
+      <c r="H53" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
